--- a/developer/python parsing files/mebdo/IPPS_FY2012MSDRG.xlsx
+++ b/developer/python parsing files/mebdo/IPPS_FY2012MSDRG.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
